--- a/nd.xlsx
+++ b/nd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="30720" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="nd" sheetId="1" r:id="rId1"/>
@@ -811,9 +811,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1138,13 +1139,14 @@
   <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1165,8 +1167,8 @@
       <c r="B2" s="1">
         <v>146980061</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
+      <c r="C2" s="2">
+        <v>17125191</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1176,8 +1178,8 @@
       <c r="B3" s="1">
         <v>40298032</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
+      <c r="C3" s="2">
+        <v>650205</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1187,9 +1189,6 @@
       <c r="B4" s="1">
         <v>1536466</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1198,9 +1197,6 @@
       <c r="B5" s="1">
         <v>1164635</v>
       </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1209,9 +1205,6 @@
       <c r="B6" s="1">
         <v>1342235</v>
       </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1220,9 +1213,6 @@
       <c r="B7" s="1">
         <v>2302617</v>
       </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1231,9 +1221,6 @@
       <c r="B8" s="1">
         <v>924114</v>
       </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1242,9 +1229,6 @@
       <c r="B9" s="1">
         <v>1073252</v>
       </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1253,9 +1237,6 @@
       <c r="B10" s="1">
         <v>577996</v>
       </c>
-      <c r="C10" s="1">
-        <v>9</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1305,7 +1286,7 @@
         <v>886900</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1313,7 +1294,7 @@
         <v>979171</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1321,7 +1302,7 @@
         <v>1226038</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1329,7 +1310,7 @@
         <v>1496690</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1337,7 +1318,7 @@
         <v>1205637</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1345,15 +1326,18 @@
         <v>13015126</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>13909835</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
+        <v>1686972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1361,7 +1345,7 @@
         <v>532384</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1369,7 +1353,7 @@
         <v>734363</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1377,7 +1361,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1369,7 @@
         <v>974604</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1393,7 +1377,7 @@
         <v>1138424</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1401,7 +1385,7 @@
         <v>1030979</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1409,7 +1393,7 @@
         <v>2006022</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1417,7 +1401,7 @@
         <v>665240</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1425,7 +1409,7 @@
         <v>581578</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1433,7 +1417,7 @@
         <v>596899</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1441,15 +1425,18 @@
         <v>5607916</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>16718204</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="2">
+        <v>447821</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1457,7 +1444,7 @@
         <v>498285</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1465,7 +1452,7 @@
         <v>266432</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1473,7 +1460,7 @@
         <v>1931091</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1481,7 +1468,7 @@
         <v>5832042</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1489,7 +1476,7 @@
         <v>957772</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1497,7 +1484,7 @@
         <v>2492808</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1505,7 +1492,7 @@
         <v>4192322</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1513,15 +1500,18 @@
         <v>547452</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>10174103</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" s="2">
+        <v>170439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1529,7 +1519,7 @@
         <v>3186902</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1537,7 +1527,7 @@
         <v>511316</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1545,7 +1535,7 @@
         <v>904338</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1553,7 +1543,7 @@
         <v>469096</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1561,7 +1551,7 @@
         <v>685393</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1569,7 +1559,7 @@
         <v>1514603</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1577,15 +1567,18 @@
         <v>2902455</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>28869534</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" s="2">
+        <v>1036975</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1593,7 +1586,7 @@
         <v>4091621</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1601,7 +1594,7 @@
         <v>676351</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1609,7 +1602,7 @@
         <v>781440</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1617,7 +1610,7 @@
         <v>4000084</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1625,7 +1618,7 @@
         <v>1448946</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1633,7 +1626,7 @@
         <v>1183908</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1641,7 +1634,7 @@
         <v>2525149</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1649,7 +1642,7 @@
         <v>1149176</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1657,7 +1650,7 @@
         <v>3108918</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1665,7 +1658,7 @@
         <v>1855781</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1673,7 +1666,7 @@
         <v>1261103</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1681,7 +1674,7 @@
         <v>3164384</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1689,7 +1682,7 @@
         <v>2431012</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1697,15 +1690,18 @@
         <v>1191661</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="1">
         <v>12285258</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" s="2">
+        <v>1818497</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1713,7 +1709,7 @@
         <v>772332</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1721,7 +1717,7 @@
         <v>4263691</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1729,7 +1725,7 @@
         <v>1713763</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1737,7 +1733,7 @@
         <v>511244</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1745,7 +1741,7 @@
         <v>1602672</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1753,15 +1749,18 @@
         <v>3421556</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>16758520</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" s="2">
+        <v>4361727</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1769,7 +1768,7 @@
         <v>210808</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1777,7 +1776,7 @@
         <v>336251</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1785,7 +1784,7 @@
         <v>532988</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1793,7 +1792,7 @@
         <v>2154932</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>2856326</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1809,7 +1808,7 @@
         <v>2363447</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1817,7 +1816,7 @@
         <v>2592013</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>2797492</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -1833,7 +1832,7 @@
         <v>1851537</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -1841,15 +1840,18 @@
         <v>1062726</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="1">
         <v>7966575</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" s="2">
+        <v>6952555</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>977951</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -1865,7 +1867,7 @@
         <v>997833</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -1873,7 +1875,7 @@
         <v>1000520</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -1881,7 +1883,7 @@
         <v>292574</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -1889,7 +1891,7 @@
         <v>1841961</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1897,7 +1899,7 @@
         <v>1292764</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -1905,7 +1907,7 @@
         <v>763570</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -1913,7 +1915,7 @@
         <v>135907</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>466009</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>149580</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -1939,5 +1941,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>